--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1602,28 +1602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.46996334851539</v>
+        <v>114.7134159622575</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.2072862882824</v>
+        <v>156.9559565182321</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.3075031758912</v>
+        <v>141.9763003172437</v>
       </c>
       <c r="AD2" t="n">
-        <v>83469.96334851539</v>
+        <v>114713.4159622575</v>
       </c>
       <c r="AE2" t="n">
-        <v>114207.2862882824</v>
+        <v>156955.9565182321</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.516328216064808e-06</v>
+        <v>5.944527316105401e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.763888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>103307.5031758912</v>
+        <v>141976.3003172437</v>
       </c>
     </row>
     <row r="3">
@@ -1708,28 +1708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>67.01925376117052</v>
+        <v>98.17736552034096</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.6986996768026</v>
+        <v>134.3306027845547</v>
       </c>
       <c r="AC3" t="n">
-        <v>82.94710447960416</v>
+        <v>121.5102785890178</v>
       </c>
       <c r="AD3" t="n">
-        <v>67019.25376117052</v>
+        <v>98177.36552034096</v>
       </c>
       <c r="AE3" t="n">
-        <v>91698.6996768026</v>
+        <v>134330.6027845547</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.065483884211912e-06</v>
+        <v>6.872902220126136e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.982638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>82947.10447960417</v>
+        <v>121510.2785890178</v>
       </c>
     </row>
   </sheetData>
@@ -2005,28 +2005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.76998147415786</v>
+        <v>95.95120667042889</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.6718313885662</v>
+        <v>131.2846740349095</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.77753730519674</v>
+        <v>118.7550490042499</v>
       </c>
       <c r="AD2" t="n">
-        <v>75769.98147415786</v>
+        <v>95951.20667042889</v>
       </c>
       <c r="AE2" t="n">
-        <v>103671.8313885662</v>
+        <v>131284.6740349095</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.109076196783562e-06</v>
+        <v>7.116061206652606e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.104166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>93777.53730519675</v>
+        <v>118755.0490042499</v>
       </c>
     </row>
     <row r="3">
@@ -2111,28 +2111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.92162345039455</v>
+        <v>94.10798612740291</v>
       </c>
       <c r="AB3" t="n">
-        <v>87.46038522779655</v>
+        <v>128.7626983707913</v>
       </c>
       <c r="AC3" t="n">
-        <v>79.11328881309822</v>
+        <v>116.4737671578993</v>
       </c>
       <c r="AD3" t="n">
-        <v>63921.62345039455</v>
+        <v>94107.98612740291</v>
       </c>
       <c r="AE3" t="n">
-        <v>87460.38522779655</v>
+        <v>128762.6983707913</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.308236230814053e-06</v>
+        <v>7.460964762636639e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.861111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>79113.28881309822</v>
+        <v>116473.7671578993</v>
       </c>
     </row>
   </sheetData>
@@ -2408,28 +2408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.42148511109521</v>
+        <v>83.68224109466931</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.19836506922135</v>
+        <v>114.4977340656033</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.83066145561843</v>
+        <v>103.5702310249907</v>
       </c>
       <c r="AD2" t="n">
-        <v>56421.48511109521</v>
+        <v>83682.24109466931</v>
       </c>
       <c r="AE2" t="n">
-        <v>77198.36506922136</v>
+        <v>114497.7340656033</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.818114650338059e-06</v>
+        <v>9.116909727179952e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.852430555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>69830.66145561842</v>
+        <v>103570.2310249907</v>
       </c>
     </row>
   </sheetData>
@@ -2705,28 +2705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.1057707057394</v>
+        <v>87.51032218808477</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.87112304213429</v>
+        <v>119.7354835006304</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.1528965623459</v>
+        <v>108.308097005168</v>
       </c>
       <c r="AD2" t="n">
-        <v>59105.7707057394</v>
+        <v>87510.32218808477</v>
       </c>
       <c r="AE2" t="n">
-        <v>80871.12304213429</v>
+        <v>119735.4835006303</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.679294568823258e-06</v>
+        <v>8.524658479627092e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.782986111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>73152.89656234591</v>
+        <v>108308.097005168</v>
       </c>
     </row>
   </sheetData>
@@ -3002,28 +3002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.74705134333994</v>
+        <v>81.35244078602538</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.22152796934675</v>
+        <v>111.3099984997827</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.89722775615652</v>
+        <v>100.6867284675561</v>
       </c>
       <c r="AD2" t="n">
-        <v>63747.05134333994</v>
+        <v>81352.44078602539</v>
       </c>
       <c r="AE2" t="n">
-        <v>87221.52796934675</v>
+        <v>111309.9984997827</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.751913717806799e-06</v>
+        <v>9.312219818079122e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.112847222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>78897.22775615653</v>
+        <v>100686.7284675561</v>
       </c>
     </row>
   </sheetData>
@@ -3299,28 +3299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.48703082422928</v>
+        <v>97.83853331281222</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.0211740602038</v>
+        <v>133.8669976099921</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.90266200957721</v>
+        <v>121.0909192416414</v>
       </c>
       <c r="AD2" t="n">
-        <v>77487.03082422928</v>
+        <v>97838.53331281221</v>
       </c>
       <c r="AE2" t="n">
-        <v>106021.1740602038</v>
+        <v>133866.9976099921</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.969147913281378e-06</v>
+        <v>6.828844393752193e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>95902.66200957721</v>
+        <v>121090.9192416414</v>
       </c>
     </row>
     <row r="3">
@@ -3405,28 +3405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>64.68767773030683</v>
+        <v>95.12945634578305</v>
       </c>
       <c r="AB3" t="n">
-        <v>88.50853448950164</v>
+        <v>130.1603189876639</v>
       </c>
       <c r="AC3" t="n">
-        <v>80.06140418035325</v>
+        <v>117.7380008246709</v>
       </c>
       <c r="AD3" t="n">
-        <v>64687.67773030684</v>
+        <v>95129.45634578305</v>
       </c>
       <c r="AE3" t="n">
-        <v>88508.53448950165</v>
+        <v>130160.3189876639</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.248693008917383e-06</v>
+        <v>7.309796477383834e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.887152777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>80061.40418035325</v>
+        <v>117738.0008246709</v>
       </c>
     </row>
   </sheetData>
@@ -3702,28 +3702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.58200354070842</v>
+        <v>88.2638377888797</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.62745816750557</v>
+        <v>120.7664767883996</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.45529373891154</v>
+        <v>109.240693740561</v>
       </c>
       <c r="AD2" t="n">
-        <v>62582.00354070842</v>
+        <v>88263.8377888797</v>
       </c>
       <c r="AE2" t="n">
-        <v>85627.45816750557</v>
+        <v>120766.4767883996</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.678737480318912e-06</v>
+        <v>9.379279639337329e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>77455.29373891154</v>
+        <v>109240.693740561</v>
       </c>
     </row>
   </sheetData>
@@ -3999,28 +3999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.59640024725436</v>
+        <v>90.95381462562719</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.27891225965388</v>
+        <v>124.4470217698381</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.23545115980872</v>
+        <v>112.5699726746496</v>
       </c>
       <c r="AD2" t="n">
-        <v>61596.40024725436</v>
+        <v>90953.81462562719</v>
       </c>
       <c r="AE2" t="n">
-        <v>84278.91225965388</v>
+        <v>124447.0217698381</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.494496045786562e-06</v>
+        <v>7.960086469155649e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.809027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>76235.45115980871</v>
+        <v>112569.9726746496</v>
       </c>
     </row>
     <row r="3">
@@ -4105,28 +4105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.68459008133796</v>
+        <v>91.0420044597108</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.39957748130789</v>
+        <v>124.5676869914922</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.34460026206281</v>
+        <v>112.6791217769037</v>
       </c>
       <c r="AD3" t="n">
-        <v>61684.59008133796</v>
+        <v>91042.00445971079</v>
       </c>
       <c r="AE3" t="n">
-        <v>84399.57748130789</v>
+        <v>124567.6869914922</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.489097445982867e-06</v>
+        <v>7.950525147750091e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.809027777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>76344.60026206281</v>
+        <v>112679.1217769037</v>
       </c>
     </row>
   </sheetData>
@@ -4402,28 +4402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.71342057835065</v>
+        <v>93.63465480525555</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.17551287300378</v>
+        <v>128.1150655739254</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.8556042760259</v>
+        <v>115.8879435262077</v>
       </c>
       <c r="AD2" t="n">
-        <v>63713.42057835065</v>
+        <v>93634.65480525554</v>
       </c>
       <c r="AE2" t="n">
-        <v>87175.51287300378</v>
+        <v>128115.0655739254</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.300771615271377e-06</v>
+        <v>7.50017015707771e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>78855.6042760259</v>
+        <v>115887.9435262077</v>
       </c>
     </row>
     <row r="3">
@@ -4508,28 +4508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.22120230030495</v>
+        <v>93.14243652720985</v>
       </c>
       <c r="AB3" t="n">
-        <v>86.50203810984414</v>
+        <v>127.4415908107658</v>
       </c>
       <c r="AC3" t="n">
-        <v>78.24640499903425</v>
+        <v>115.2787442492161</v>
       </c>
       <c r="AD3" t="n">
-        <v>63221.20230030495</v>
+        <v>93142.43652720985</v>
       </c>
       <c r="AE3" t="n">
-        <v>86502.03810984414</v>
+        <v>127441.5908107658</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.364075611535517e-06</v>
+        <v>7.610566798907784e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.852430555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>78246.40499903426</v>
+        <v>115278.7442492161</v>
       </c>
     </row>
   </sheetData>
@@ -4805,28 +4805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.59936274704481</v>
+        <v>112.6116387185925</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.6478480202774</v>
+        <v>154.0802121695833</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.9923341039897</v>
+        <v>139.3750129730964</v>
       </c>
       <c r="AD2" t="n">
-        <v>81599.36274704481</v>
+        <v>112611.6387185925</v>
       </c>
       <c r="AE2" t="n">
-        <v>111647.8480202774</v>
+        <v>154080.2121695833</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.637750319540021e-06</v>
+        <v>6.183934446300009e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.616319444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>100992.3341039897</v>
+        <v>139375.0129730964</v>
       </c>
     </row>
     <row r="3">
@@ -4911,28 +4911,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.83142847798239</v>
+        <v>96.75836359495841</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.07346472119234</v>
+        <v>132.3890617483005</v>
       </c>
       <c r="AC3" t="n">
-        <v>81.47697966712525</v>
+        <v>119.7540355042932</v>
       </c>
       <c r="AD3" t="n">
-        <v>65831.42847798238</v>
+        <v>96758.36359495841</v>
       </c>
       <c r="AE3" t="n">
-        <v>90073.46472119234</v>
+        <v>132389.0617483006</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.174732174512513e-06</v>
+        <v>7.096768010540436e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.895833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>81476.97966712526</v>
+        <v>119754.0355042932</v>
       </c>
     </row>
   </sheetData>
@@ -5208,28 +5208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.86143047455867</v>
+        <v>88.60052870344865</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.90505007518848</v>
+        <v>121.2271521514674</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.08814705049143</v>
+        <v>109.6574028935397</v>
       </c>
       <c r="AD2" t="n">
-        <v>59861.43047455867</v>
+        <v>88600.52870344864</v>
       </c>
       <c r="AE2" t="n">
-        <v>81905.05007518848</v>
+        <v>121227.1521514674</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.63452727848713e-06</v>
+        <v>8.357149397380841e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>74088.14705049143</v>
+        <v>109657.4028935397</v>
       </c>
     </row>
   </sheetData>
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.47903184050722</v>
+        <v>85.14885248436394</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.64534716007105</v>
+        <v>116.5044164713105</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.13954560657</v>
+        <v>105.3853984782943</v>
       </c>
       <c r="AD2" t="n">
-        <v>57479.03184050722</v>
+        <v>85148.85248436395</v>
       </c>
       <c r="AE2" t="n">
-        <v>78645.34716007105</v>
+        <v>116504.4164713105</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.755230232196009e-06</v>
+        <v>8.871739638467037e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.84375</v>
       </c>
       <c r="AH2" t="n">
-        <v>71139.54560657</v>
+        <v>105385.3984782943</v>
       </c>
     </row>
   </sheetData>
@@ -8815,28 +8815,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.60686899454827</v>
+        <v>82.42199607945437</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.08377136023573</v>
+        <v>112.7734112377009</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.82244300587594</v>
+        <v>102.0104751476805</v>
       </c>
       <c r="AD2" t="n">
-        <v>55606.86899454827</v>
+        <v>82421.99607945437</v>
       </c>
       <c r="AE2" t="n">
-        <v>76083.77136023573</v>
+        <v>112773.4112377009</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.814511372305864e-06</v>
+        <v>9.258483908395446e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.947916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>68822.44300587595</v>
+        <v>102010.4751476805</v>
       </c>
     </row>
   </sheetData>
@@ -9112,28 +9112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.60028674186756</v>
+        <v>86.80648699217511</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.28422993304368</v>
+        <v>118.7724651345699</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.24026132191359</v>
+        <v>107.4369877603592</v>
       </c>
       <c r="AD2" t="n">
-        <v>61600.28674186756</v>
+        <v>86806.48699217511</v>
       </c>
       <c r="AE2" t="n">
-        <v>84284.22993304368</v>
+        <v>118772.4651345699</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.445046466177043e-06</v>
+        <v>9.168349824562624e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.746527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>76240.2613219136</v>
+        <v>107436.9877603592</v>
       </c>
     </row>
   </sheetData>
@@ -9409,28 +9409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.1537698876759</v>
+        <v>91.79910694366605</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.04152999109135</v>
+        <v>125.6035880110435</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.92528572529875</v>
+        <v>113.6161578570456</v>
       </c>
       <c r="AD2" t="n">
-        <v>62153.7698876759</v>
+        <v>91799.10694366605</v>
       </c>
       <c r="AE2" t="n">
-        <v>85041.52999109135</v>
+        <v>125603.5880110435</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.457076907592938e-06</v>
+        <v>7.830908304870541e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.791666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>76925.28572529875</v>
+        <v>113616.1578570455</v>
       </c>
     </row>
     <row r="3">
@@ -9515,28 +9515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.28656754804729</v>
+        <v>91.93190460403743</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.22322960863067</v>
+        <v>125.7852876285828</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.08964418635719</v>
+        <v>113.780516318104</v>
       </c>
       <c r="AD3" t="n">
-        <v>62286.56754804729</v>
+        <v>91931.90460403742</v>
       </c>
       <c r="AE3" t="n">
-        <v>85223.22960863067</v>
+        <v>125785.2876285828</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.448583298227549e-06</v>
+        <v>7.815985368269551e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.800347222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>77089.6441863572</v>
+        <v>113780.516318104</v>
       </c>
     </row>
   </sheetData>
@@ -9812,28 +9812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.4683909708901</v>
+        <v>110.0715190875442</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.7321584243043</v>
+        <v>150.6047084282156</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.35491383085923</v>
+        <v>136.2312064309036</v>
       </c>
       <c r="AD2" t="n">
-        <v>79468.3909708901</v>
+        <v>110071.5190875442</v>
       </c>
       <c r="AE2" t="n">
-        <v>108732.1584243043</v>
+        <v>150604.7084282156</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.8020716710271e-06</v>
+        <v>6.501118845481376e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>98354.91383085924</v>
+        <v>136231.2064309036</v>
       </c>
     </row>
     <row r="3">
@@ -9918,28 +9918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.36931076572301</v>
+        <v>96.05769022839766</v>
       </c>
       <c r="AB3" t="n">
-        <v>89.44117488008479</v>
+        <v>131.4303695366453</v>
       </c>
       <c r="AC3" t="n">
-        <v>80.90503468102844</v>
+        <v>118.886839531785</v>
       </c>
       <c r="AD3" t="n">
-        <v>65369.31076572301</v>
+        <v>96057.69022839767</v>
       </c>
       <c r="AE3" t="n">
-        <v>89441.17488008479</v>
+        <v>131430.3695366453</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.2051153715405e-06</v>
+        <v>7.190278657203804e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.895833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>80905.03468102844</v>
+        <v>118886.839531785</v>
       </c>
     </row>
   </sheetData>
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.04975283528645</v>
+        <v>101.5161258477034</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.47691808930362</v>
+        <v>138.8988419601598</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.460173626071</v>
+        <v>125.6425314292685</v>
       </c>
       <c r="AD2" t="n">
-        <v>69049.75283528646</v>
+        <v>101516.1258477034</v>
       </c>
       <c r="AE2" t="n">
-        <v>94476.91808930362</v>
+        <v>138898.8419601598</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.922977570594131e-06</v>
+        <v>8.4087478198326e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.744791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>85460.173626071</v>
+        <v>125642.5314292685</v>
       </c>
     </row>
   </sheetData>
@@ -10512,28 +10512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.46256442049564</v>
+        <v>86.51195549116183</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.99105982640563</v>
+        <v>118.3694741410709</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.35682534474962</v>
+        <v>107.0724576616783</v>
       </c>
       <c r="AD2" t="n">
-        <v>58462.56442049564</v>
+        <v>86511.95549116183</v>
       </c>
       <c r="AE2" t="n">
-        <v>79991.05982640563</v>
+        <v>118369.4741410709</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.697389007054226e-06</v>
+        <v>8.654622336636706e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.826388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>72356.82534474962</v>
+        <v>107072.4576616783</v>
       </c>
     </row>
   </sheetData>
@@ -10809,28 +10809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.64144708461718</v>
+        <v>89.69739895275229</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.97230321297417</v>
+        <v>122.7279384170641</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.05354304670638</v>
+        <v>111.0149562243151</v>
       </c>
       <c r="AD2" t="n">
-        <v>60641.44708461718</v>
+        <v>89697.39895275229</v>
       </c>
       <c r="AE2" t="n">
-        <v>82972.30321297416</v>
+        <v>122727.9384170641</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.582776163782716e-06</v>
+        <v>8.186795173473131e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>75053.54304670639</v>
+        <v>111014.9562243151</v>
       </c>
     </row>
   </sheetData>
